--- a/python_packy/xl.xlsx
+++ b/python_packy/xl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20633" windowHeight="9521"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,6 @@
     <t>Координата Z</t>
   </si>
   <si>
-    <t>Длинна Х</t>
-  </si>
-  <si>
-    <t>Длинна У</t>
-  </si>
-  <si>
-    <t>Длинна Z</t>
-  </si>
-  <si>
     <t>Длинна палеты</t>
   </si>
   <si>
@@ -52,6 +43,15 @@
   </si>
   <si>
     <t>Высота палеты</t>
+  </si>
+  <si>
+    <t>Длинна Х, длинна</t>
+  </si>
+  <si>
+    <t>Длинна У, высота</t>
+  </si>
+  <si>
+    <t>Длинна Z, ширина</t>
   </si>
 </sst>
 </file>
@@ -372,30 +372,30 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.69921875" customWidth="1"/>
+    <col min="2" max="2" width="24.296875" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" customWidth="1"/>
+    <col min="4" max="4" width="20.8984375" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="22.296875" customWidth="1"/>
+    <col min="8" max="9" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -412,13 +412,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>1</v>
